--- a/report_template/quarterForm.xlsx
+++ b/report_template/quarterForm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>測站名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,36 +48,16 @@
     <t>維修及改善建議</t>
   </si>
   <si>
-    <t>懸浮微粒
-連續測定分析儀(PM10&amp;TSP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>氣體校正系統(Calibrator)</t>
-  </si>
-  <si>
     <t>氮氧化物分析儀(NOx)</t>
   </si>
   <si>
     <t>一氧化碳分析儀(CO)</t>
   </si>
   <si>
-    <t>1. 進行測漏檢查(註:測漏檢查應以阻塞管線之末端，觀察儀器之流量是否歸零，以判定管線有無洩漏。)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1. 檢查加熱線圈感應器 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 執行零值氣體之零點測試(註:零氣體鋼瓶規格:THC、CO濃度小於0.01ppm，NOx、SO2濃度小於0.001ppm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 更換藥劑 (Purafil、Hopcalite)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 限流閥、濾光器清潔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. NMHC去除藥劑更換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 站房外部清洗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,14 +123,6 @@
   </si>
   <si>
     <t>1. 採樣系統管路清洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 使用水平儀檢查風速風向之橫桿是否保持水平(颱風過後需進行此項檢查)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 雨量計內部計數板軸承潤滑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,11 +275,32 @@
   <si>
     <t>YES☑  NO□</t>
   </si>
+  <si>
+    <t>4. NMHC去除效率檢查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懸浮微粒
+連續測定分析儀(PM10&amp;PM2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 執行儀器設備多點校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 使用水平儀檢查風速風向之橫桿是否保持水平(颱風過後需進行此項檢查)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 更換藥劑 (Purafil、Hopcalite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -715,90 +704,6 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,6 +727,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -924,6 +913,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -959,6 +965,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1135,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:F62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1149,721 +1172,773 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="31" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" s="33" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
-      <c r="B29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="17" t="s">
+      <c r="E67" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" spans="1:6" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="1:6" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="1:6" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-    </row>
-    <row r="41" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="31"/>
-    </row>
-    <row r="42" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-      <c r="B50" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="1:6" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="32"/>
-    </row>
-    <row r="52" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="32"/>
-    </row>
-    <row r="55" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="32"/>
-    </row>
-    <row r="56" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="11"/>
+      <c r="F67" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="B58:F63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B49:D49"/>
@@ -1874,62 +1949,9 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:F9"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="A42:D42"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:F62"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.54" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
